--- a/StaticData/PrefabPath.xlsx
+++ b/StaticData/PrefabPath.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="PrefabPath" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>导出标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exported/UI/Battle/Prefabs/BattlePrepareActorItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleMainWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattlePrepareWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattlePrepareCoverWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Lobby/Prefabs/LobbyWindow.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Loading/Prefabs/LoadingWindow.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Battle/Prefabs/BattleMainWindow.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Battle/Prefabs/BattlePrepareWindow.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Battle/Prefabs/BattlePrepareCoverWindow.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Battle/Prefabs/BattlePrepareActorItem.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="50.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
@@ -469,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -506,13 +546,53 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/StaticData/PrefabPath.xlsx
+++ b/StaticData/PrefabPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>导出标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,13 @@
   </si>
   <si>
     <t>UI/Battle/Prefabs/BattlePrepareActorItem.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera/CameraRoot.prefab</t>
+  </si>
+  <si>
+    <t>BattleCamera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,6 +602,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
